--- a/FieldData/2015/xlsx_analysis/11-012-B Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/11-012-B Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_CC42FD16FF5E5B52ABFC97E4F95F1E5687621034" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6224901D-3CC5-4601-9D74-58BA96923EA0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_CC42FD16FF5E5B52ABFC97E4F95F1E5687621034" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCCF8FA-3A2A-4A12-8CC7-A812F6F2613F}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1605" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="110">
   <si>
     <t>Raw Sample Plot Data (Quadrats)</t>
   </si>
@@ -344,9 +344,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>common rush</t>
   </si>
   <si>
@@ -382,6 +379,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1403,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1641,17 +1644,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1722,8 +1722,20 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -3123,10 +3135,10 @@
   <dimension ref="A1:IO150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3143,29 +3155,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="139" t="s">
+      <c r="G1" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="139" t="s">
+      <c r="H1" s="114" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" s="139" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3178,17 +3190,17 @@
       <c r="C2" s="90">
         <v>1</v>
       </c>
-      <c r="D2" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="108" t="s">
-        <v>40</v>
+      <c r="D2" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="91">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H2" s="92"/>
     </row>
@@ -3202,17 +3214,17 @@
       <c r="C3" s="95">
         <v>1</v>
       </c>
-      <c r="D3" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>42</v>
+      <c r="D3" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="97">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="98"/>
     </row>
@@ -3221,22 +3233,22 @@
         <v>38</v>
       </c>
       <c r="B4" s="94">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="95">
         <v>1</v>
       </c>
-      <c r="D4" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>44</v>
+      <c r="D4" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="97">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H4" s="98"/>
     </row>
@@ -3245,19 +3257,19 @@
         <v>38</v>
       </c>
       <c r="B5" s="94">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="95">
         <v>1</v>
       </c>
-      <c r="D5" s="101" t="s">
-        <v>45</v>
+      <c r="D5" s="102" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F5" s="97">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G5" s="94" t="s">
         <v>11</v>
@@ -3269,22 +3281,22 @@
         <v>38</v>
       </c>
       <c r="B6" s="94">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="95">
         <v>1</v>
       </c>
-      <c r="D6" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>47</v>
+      <c r="D6" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="98"/>
     </row>
@@ -3293,48 +3305,46 @@
         <v>38</v>
       </c>
       <c r="B7" s="94">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" s="95">
         <v>1</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F7" s="97">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="98">
-        <v>56</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="94">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" s="95">
         <v>1</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" s="97">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="98"/>
     </row>
@@ -3343,19 +3353,19 @@
         <v>38</v>
       </c>
       <c r="B9" s="94">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" s="95">
         <v>1</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F9" s="97">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G9" s="94" t="s">
         <v>11</v>
@@ -3367,22 +3377,22 @@
         <v>38</v>
       </c>
       <c r="B10" s="94">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" s="95">
         <v>1</v>
       </c>
-      <c r="D10" s="102" t="s">
-        <v>54</v>
+      <c r="D10" s="101" t="s">
+        <v>45</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F10" s="97">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="98"/>
     </row>
@@ -3391,22 +3401,22 @@
         <v>38</v>
       </c>
       <c r="B11" s="94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="95">
         <v>1</v>
       </c>
-      <c r="D11" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="103" t="s">
-        <v>57</v>
+      <c r="D11" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="98"/>
     </row>
@@ -3415,22 +3425,22 @@
         <v>38</v>
       </c>
       <c r="B12" s="94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="95">
         <v>1</v>
       </c>
-      <c r="D12" s="102" t="s">
-        <v>58</v>
+      <c r="D12" s="101" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F12" s="97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="98"/>
     </row>
@@ -3439,22 +3449,22 @@
         <v>38</v>
       </c>
       <c r="B13" s="94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="95">
         <v>1</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="98"/>
     </row>
@@ -3463,19 +3473,23 @@
         <v>38</v>
       </c>
       <c r="B14" s="94">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C14" s="95">
         <v>1</v>
       </c>
-      <c r="D14" s="102"/>
+      <c r="D14" s="101" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" s="96" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F14" s="97">
-        <v>9</v>
-      </c>
-      <c r="G14" s="94"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>11</v>
+      </c>
       <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,606 +3497,598 @@
         <v>38</v>
       </c>
       <c r="B15" s="94">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C15" s="95">
         <v>1</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="97">
-        <f>75*0.75</f>
-        <v>56.25</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="98"/>
+        <v>53</v>
+      </c>
+      <c r="F15" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="94">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C16" s="95">
         <v>1</v>
       </c>
-      <c r="D16" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="97">
-        <f>75*0.25</f>
-        <v>18.75</v>
-      </c>
-      <c r="G16" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="98">
-        <v>91</v>
-      </c>
+      <c r="D16" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="98">
+        <v>4</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="94">
-        <v>14</v>
-      </c>
-      <c r="C17" s="95">
+        <v>2</v>
+      </c>
+      <c r="C17" s="94">
         <v>1</v>
       </c>
-      <c r="D17" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="97">
-        <v>6</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="98">
-        <v>101</v>
-      </c>
+      <c r="D17" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="98">
+        <v>5</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="104"/>
     </row>
     <row r="18" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="94">
-        <v>14</v>
-      </c>
-      <c r="C18" s="95">
+        <v>2</v>
+      </c>
+      <c r="C18" s="94">
         <v>1</v>
       </c>
-      <c r="D18" s="101" t="s">
-        <v>45</v>
+      <c r="D18" s="102" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="97">
-        <v>6</v>
-      </c>
-      <c r="G18" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="98">
+        <v>3</v>
+      </c>
+      <c r="G18" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="98"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="94">
-        <v>14</v>
-      </c>
-      <c r="C19" s="95">
+        <v>2</v>
+      </c>
+      <c r="C19" s="94">
         <v>1</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="97">
-        <v>1</v>
-      </c>
-      <c r="G19" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="98"/>
+        <v>53</v>
+      </c>
+      <c r="F19" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="94">
-        <v>14</v>
-      </c>
-      <c r="C20" s="95">
+        <v>15</v>
+      </c>
+      <c r="C20" s="94">
         <v>1</v>
       </c>
-      <c r="D20" s="102" t="s">
-        <v>65</v>
+      <c r="D20" s="101" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="97">
-        <v>3</v>
-      </c>
-      <c r="G20" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="98">
+        <v>5</v>
+      </c>
+      <c r="G20" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="98"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="94">
-        <v>14</v>
-      </c>
-      <c r="C21" s="95">
+        <v>10</v>
+      </c>
+      <c r="C21" s="94">
         <v>1</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="97">
-        <v>5</v>
-      </c>
-      <c r="G21" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="98">
-        <v>55</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F21" s="98">
+        <v>16</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="94">
-        <v>14</v>
-      </c>
-      <c r="C22" s="95">
+        <v>10</v>
+      </c>
+      <c r="C22" s="94">
         <v>1</v>
       </c>
-      <c r="D22" s="112" t="s">
-        <v>67</v>
+      <c r="D22" s="138" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="97">
-        <v>5</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="98"/>
+        <v>66</v>
+      </c>
+      <c r="F22" s="105">
+        <v>1</v>
+      </c>
+      <c r="G22" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="103"/>
     </row>
     <row r="23" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="94">
-        <v>14</v>
-      </c>
-      <c r="C23" s="95">
+      <c r="B23" s="103">
+        <v>6</v>
+      </c>
+      <c r="C23" s="103">
         <v>1</v>
       </c>
-      <c r="D23" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="97">
-        <v>2</v>
-      </c>
-      <c r="G23" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="98"/>
+      <c r="D23" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="105">
+        <v>6</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="103"/>
     </row>
     <row r="24" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="94">
-        <v>14</v>
-      </c>
-      <c r="C24" s="95">
+      <c r="B24" s="103">
+        <v>6</v>
+      </c>
+      <c r="C24" s="103">
         <v>1</v>
       </c>
-      <c r="D24" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="97">
-        <v>1</v>
-      </c>
-      <c r="G24" s="94" t="s">
+      <c r="D24" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="105">
+        <v>3</v>
+      </c>
+      <c r="G24" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="98"/>
+      <c r="H24" s="103"/>
     </row>
     <row r="25" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="94">
-        <v>14</v>
-      </c>
-      <c r="C25" s="95">
+      <c r="B25" s="103">
+        <v>8</v>
+      </c>
+      <c r="C25" s="103">
         <v>1</v>
       </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="101" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="97">
-        <v>5</v>
-      </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="98"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="105">
+        <v>22</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="94">
-        <v>4</v>
-      </c>
-      <c r="C26" s="95">
+      <c r="B26" s="103">
+        <v>8</v>
+      </c>
+      <c r="C26" s="103">
         <v>1</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="97">
-        <v>37</v>
-      </c>
-      <c r="G26" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="98"/>
+        <v>66</v>
+      </c>
+      <c r="F26" s="105">
+        <v>5</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="94">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C27" s="95">
         <v>1</v>
       </c>
-      <c r="D27" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>13</v>
+      <c r="D27" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="108" t="s">
+        <v>40</v>
       </c>
       <c r="F27" s="97">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="98">
-        <v>78</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="95">
         <v>1</v>
       </c>
-      <c r="D28" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="97">
-        <v>8</v>
-      </c>
-      <c r="G28" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="98"/>
+      <c r="D28" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="98">
+        <v>3</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="104"/>
     </row>
     <row r="29" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="94">
-        <v>4</v>
-      </c>
-      <c r="C29" s="95">
+        <v>2</v>
+      </c>
+      <c r="C29" s="94">
         <v>1</v>
       </c>
-      <c r="D29" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="97">
-        <v>7</v>
-      </c>
-      <c r="G29" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="98"/>
+      <c r="D29" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="98">
+        <v>1</v>
+      </c>
+      <c r="G29" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="94">
-        <v>4</v>
-      </c>
-      <c r="C30" s="95">
+        <v>12</v>
+      </c>
+      <c r="C30" s="94">
         <v>1</v>
       </c>
-      <c r="D30" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="98"/>
+      <c r="D30" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="98">
+        <v>45</v>
+      </c>
+      <c r="G30" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="104"/>
     </row>
     <row r="31" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="94">
-        <v>4</v>
-      </c>
-      <c r="C31" s="95">
+        <v>12</v>
+      </c>
+      <c r="C31" s="94">
         <v>1</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="98"/>
+        <v>88</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="98">
+        <v>12</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="94">
-        <v>4</v>
-      </c>
-      <c r="C32" s="95">
+        <v>5</v>
+      </c>
+      <c r="C32" s="94">
         <v>1</v>
       </c>
-      <c r="D32" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="97">
-        <v>1</v>
-      </c>
-      <c r="G32" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="98"/>
+      <c r="D32" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="98">
+        <v>25</v>
+      </c>
+      <c r="G32" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="104"/>
     </row>
     <row r="33" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="94">
-        <v>4</v>
-      </c>
-      <c r="C33" s="95">
         <v>1</v>
       </c>
-      <c r="D33" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="98"/>
+      <c r="C33" s="94">
+        <v>1</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="98">
+        <v>90</v>
+      </c>
+      <c r="G33" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="94">
-        <v>4</v>
-      </c>
-      <c r="C34" s="95">
+        <v>10</v>
+      </c>
+      <c r="C34" s="94">
         <v>1</v>
       </c>
-      <c r="D34" s="102" t="s">
-        <v>76</v>
+      <c r="D34" s="94" t="s">
+        <v>39</v>
       </c>
       <c r="E34" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="98"/>
+        <v>40</v>
+      </c>
+      <c r="F34" s="98">
+        <v>3</v>
+      </c>
+      <c r="G34" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="94">
-        <v>4</v>
-      </c>
-      <c r="C35" s="95">
+      <c r="B35" s="103">
+        <v>6</v>
+      </c>
+      <c r="C35" s="103">
         <v>1</v>
       </c>
-      <c r="D35" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="97">
-        <v>2</v>
-      </c>
-      <c r="G35" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="98"/>
+      <c r="D35" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="105">
+        <v>45</v>
+      </c>
+      <c r="G35" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="103"/>
     </row>
     <row r="36" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="94">
-        <v>7</v>
-      </c>
-      <c r="C36" s="95">
+      <c r="B36" s="103">
+        <v>6</v>
+      </c>
+      <c r="C36" s="103">
         <v>1</v>
       </c>
-      <c r="D36" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="97">
-        <v>30</v>
-      </c>
-      <c r="G36" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="98"/>
+      <c r="D36" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="105">
+        <v>2</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="94">
-        <v>7</v>
-      </c>
-      <c r="C37" s="95">
+      <c r="B37" s="103">
+        <v>6</v>
+      </c>
+      <c r="C37" s="103">
         <v>1</v>
       </c>
-      <c r="D37" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="97">
-        <v>22</v>
-      </c>
-      <c r="G37" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="98">
-        <v>73</v>
-      </c>
+      <c r="D37" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="105">
+        <v>4</v>
+      </c>
+      <c r="G37" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="103"/>
     </row>
     <row r="38" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="94">
-        <v>7</v>
-      </c>
-      <c r="C38" s="95">
+      <c r="B38" s="103">
+        <v>8</v>
+      </c>
+      <c r="C38" s="103">
         <v>1</v>
       </c>
-      <c r="D38" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="97">
-        <v>50</v>
-      </c>
-      <c r="G38" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="98"/>
+      <c r="D38" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="105">
+        <v>8</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="106"/>
     </row>
     <row r="39" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C39" s="95">
         <v>1</v>
       </c>
-      <c r="D39" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="96" t="s">
-        <v>12</v>
+      <c r="D39" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="F39" s="97">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G39" s="94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="98"/>
     </row>
@@ -4091,19 +4097,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C40" s="95">
         <v>1</v>
       </c>
       <c r="D40" s="101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" s="97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40" s="94" t="s">
         <v>10</v>
@@ -4115,43 +4121,45 @@
         <v>38</v>
       </c>
       <c r="B41" s="94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C41" s="95">
         <v>1</v>
       </c>
-      <c r="D41" s="102" t="s">
-        <v>50</v>
+      <c r="D41" s="101" t="s">
+        <v>48</v>
       </c>
       <c r="E41" s="96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="97">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G41" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="98"/>
+      <c r="H41" s="98">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C42" s="95">
         <v>1</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E42" s="96" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F42" s="97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="94" t="s">
         <v>10</v>
@@ -4163,19 +4171,19 @@
         <v>38</v>
       </c>
       <c r="B43" s="94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C43" s="95">
         <v>1</v>
       </c>
-      <c r="D43" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="114" t="s">
-        <v>79</v>
+      <c r="D43" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="143" t="s">
+        <v>55</v>
       </c>
       <c r="F43" s="97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G43" s="94" t="s">
         <v>10</v>
@@ -4187,19 +4195,23 @@
         <v>38</v>
       </c>
       <c r="B44" s="94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C44" s="95">
         <v>1</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="96" t="s">
-        <v>62</v>
+      <c r="D44" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F44" s="97">
-        <v>5</v>
-      </c>
-      <c r="G44" s="94"/>
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="94" t="s">
+        <v>10</v>
+      </c>
       <c r="H44" s="98"/>
     </row>
     <row r="45" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4207,19 +4219,19 @@
         <v>38</v>
       </c>
       <c r="B45" s="94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="95">
         <v>1</v>
       </c>
-      <c r="D45" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="103" t="s">
-        <v>57</v>
+      <c r="D45" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="F45" s="97">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G45" s="94" t="s">
         <v>10</v>
@@ -4231,22 +4243,22 @@
         <v>38</v>
       </c>
       <c r="B46" s="94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="95">
         <v>1</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="94" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="E46" s="96" t="s">
+        <v>61</v>
       </c>
       <c r="F46" s="97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46" s="94" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H46" s="98"/>
     </row>
@@ -4255,22 +4267,22 @@
         <v>38</v>
       </c>
       <c r="B47" s="94">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C47" s="95">
         <v>1</v>
       </c>
-      <c r="D47" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="100" t="s">
-        <v>44</v>
+      <c r="D47" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="F47" s="97">
-        <v>6</v>
+        <v>56.25</v>
       </c>
       <c r="G47" s="94" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H47" s="98"/>
     </row>
@@ -4279,19 +4291,19 @@
         <v>38</v>
       </c>
       <c r="B48" s="94">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C48" s="95">
         <v>1</v>
       </c>
       <c r="D48" s="102" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E48" s="96" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F48" s="97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="94" t="s">
         <v>10</v>
@@ -4303,46 +4315,48 @@
         <v>38</v>
       </c>
       <c r="B49" s="94">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C49" s="95">
         <v>1</v>
       </c>
-      <c r="D49" s="102" t="s">
-        <v>50</v>
+      <c r="D49" s="101" t="s">
+        <v>48</v>
       </c>
       <c r="E49" s="96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="98"/>
+      <c r="H49" s="98">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="94">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C50" s="95">
         <v>1</v>
       </c>
-      <c r="D50" s="102" t="s">
-        <v>52</v>
+      <c r="D50" s="110" t="s">
+        <v>67</v>
       </c>
       <c r="E50" s="96" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F50" s="97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="98"/>
     </row>
@@ -4351,22 +4365,22 @@
         <v>38</v>
       </c>
       <c r="B51" s="94">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C51" s="95">
         <v>1</v>
       </c>
       <c r="D51" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="96" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="E51" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F51" s="97">
         <v>2</v>
       </c>
       <c r="G51" s="94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" s="98"/>
     </row>
@@ -4375,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="94">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52" s="95">
         <v>1</v>
@@ -4387,7 +4401,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="97">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G52" s="94" t="s">
         <v>10</v>
@@ -4399,43 +4413,45 @@
         <v>38</v>
       </c>
       <c r="B53" s="94">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53" s="95">
         <v>1</v>
       </c>
-      <c r="D53" s="101" t="s">
-        <v>48</v>
+      <c r="D53" s="102" t="s">
+        <v>71</v>
       </c>
       <c r="E53" s="96" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F53" s="97">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="G53" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="98"/>
+      <c r="H53" s="98">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="94">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54" s="95">
         <v>1</v>
       </c>
       <c r="D54" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="94" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="E54" s="96" t="s">
+        <v>51</v>
       </c>
       <c r="F54" s="97">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G54" s="94" t="s">
         <v>10</v>
@@ -4447,22 +4463,22 @@
         <v>38</v>
       </c>
       <c r="B55" s="94">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55" s="95">
         <v>1</v>
       </c>
       <c r="D55" s="102" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E55" s="96" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F55" s="97">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="98"/>
     </row>
@@ -4471,19 +4487,23 @@
         <v>38</v>
       </c>
       <c r="B56" s="94">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" s="95">
         <v>1</v>
       </c>
-      <c r="D56" s="94"/>
+      <c r="D56" s="102" t="s">
+        <v>74</v>
+      </c>
       <c r="E56" s="96" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F56" s="97">
-        <v>22</v>
-      </c>
-      <c r="G56" s="94"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="94" t="s">
+        <v>10</v>
+      </c>
       <c r="H56" s="98"/>
     </row>
     <row r="57" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4491,19 +4511,19 @@
         <v>38</v>
       </c>
       <c r="B57" s="94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="95">
         <v>1</v>
       </c>
-      <c r="D57" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="96" t="s">
-        <v>55</v>
+      <c r="D57" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>42</v>
       </c>
       <c r="F57" s="97">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="94" t="s">
         <v>10</v>
@@ -4515,21 +4535,23 @@
         <v>38</v>
       </c>
       <c r="B58" s="94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="95">
         <v>1</v>
       </c>
-      <c r="D58" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="96" t="s">
-        <v>104</v>
+      <c r="D58" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F58" s="97">
-        <v>1</v>
-      </c>
-      <c r="G58" s="94"/>
+        <v>2</v>
+      </c>
+      <c r="G58" s="94" t="s">
+        <v>10</v>
+      </c>
       <c r="H58" s="98"/>
     </row>
     <row r="59" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4537,22 +4559,22 @@
         <v>38</v>
       </c>
       <c r="B59" s="94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C59" s="95">
         <v>1</v>
       </c>
-      <c r="D59" s="101" t="s">
-        <v>45</v>
+      <c r="D59" s="102" t="s">
+        <v>54</v>
       </c>
       <c r="E59" s="96" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F59" s="97">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G59" s="94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H59" s="98"/>
     </row>
@@ -4561,221 +4583,227 @@
         <v>38</v>
       </c>
       <c r="B60" s="94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" s="95">
         <v>1</v>
       </c>
-      <c r="D60" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="96" t="s">
-        <v>75</v>
+      <c r="D60" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F60" s="97">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G60" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="98"/>
+      <c r="H60" s="98">
+        <v>73</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C61" s="95">
         <v>1</v>
       </c>
-      <c r="D61" s="102" t="s">
-        <v>52</v>
+      <c r="D61" s="101" t="s">
+        <v>48</v>
       </c>
       <c r="E61" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="G61" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="104"/>
+        <v>49</v>
+      </c>
+      <c r="F61" s="97">
+        <v>10</v>
+      </c>
+      <c r="G61" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="98"/>
     </row>
     <row r="62" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" s="95">
         <v>1</v>
       </c>
-      <c r="D62" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="98">
+      <c r="D62" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="97">
         <v>4</v>
       </c>
-      <c r="G62" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="104"/>
+      <c r="G62" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="98"/>
     </row>
     <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C63" s="95">
         <v>1</v>
       </c>
       <c r="D63" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="98">
-        <v>4</v>
-      </c>
-      <c r="G63" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="97">
+        <v>3</v>
+      </c>
+      <c r="G63" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="104"/>
+      <c r="H63" s="98"/>
     </row>
     <row r="64" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B64" s="94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64" s="95">
         <v>1</v>
       </c>
-      <c r="D64" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="98">
-        <v>1</v>
-      </c>
-      <c r="G64" s="104" t="s">
+      <c r="D64" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="142" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="104"/>
+      <c r="H64" s="98"/>
     </row>
     <row r="65" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B65" s="94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C65" s="95">
         <v>1</v>
       </c>
       <c r="D65" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="97">
+        <v>45</v>
+      </c>
+      <c r="G65" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="104"/>
+      <c r="H65" s="98"/>
     </row>
     <row r="66" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C66" s="95">
         <v>1</v>
       </c>
       <c r="D66" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="G66" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="97">
+        <v>3</v>
+      </c>
+      <c r="G66" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="104"/>
+      <c r="H66" s="98"/>
     </row>
     <row r="67" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B67" s="94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C67" s="95">
         <v>1</v>
       </c>
-      <c r="D67" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="98">
-        <v>3</v>
-      </c>
-      <c r="G67" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" s="104"/>
+      <c r="D67" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="97">
+        <v>7</v>
+      </c>
+      <c r="G67" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="98"/>
     </row>
     <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B68" s="94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68" s="95">
         <v>1</v>
       </c>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" s="98">
-        <v>17</v>
-      </c>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
+      <c r="D68" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="97">
+        <v>5</v>
+      </c>
+      <c r="G68" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="98"/>
     </row>
     <row r="69" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="94">
-        <v>2</v>
-      </c>
-      <c r="C69" s="94">
+        <v>9</v>
+      </c>
+      <c r="C69" s="95">
         <v>1</v>
       </c>
       <c r="D69" s="101" t="s">
@@ -4784,104 +4812,104 @@
       <c r="E69" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="98">
-        <v>45</v>
-      </c>
-      <c r="G69" s="104" t="s">
+      <c r="F69" s="97">
+        <v>2</v>
+      </c>
+      <c r="G69" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H69" s="104"/>
+      <c r="H69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B70" s="94">
+        <v>9</v>
+      </c>
+      <c r="C70" s="95">
+        <v>1</v>
+      </c>
+      <c r="D70" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="97">
         <v>2</v>
       </c>
-      <c r="C70" s="94">
-        <v>1</v>
-      </c>
-      <c r="D70" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="98">
-        <v>7</v>
-      </c>
-      <c r="G70" s="104" t="s">
+      <c r="G70" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="104"/>
+      <c r="H70" s="98"/>
     </row>
     <row r="71" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B71" s="94">
-        <v>2</v>
-      </c>
-      <c r="C71" s="94">
+        <v>3</v>
+      </c>
+      <c r="C71" s="95">
         <v>1</v>
       </c>
-      <c r="D71" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" s="98">
-        <v>2</v>
-      </c>
-      <c r="G71" s="104" t="s">
+      <c r="D71" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="97">
+        <v>60</v>
+      </c>
+      <c r="G71" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="104"/>
+      <c r="H71" s="98"/>
     </row>
     <row r="72" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="94">
-        <v>2</v>
-      </c>
-      <c r="C72" s="94">
+        <v>3</v>
+      </c>
+      <c r="C72" s="95">
         <v>1</v>
       </c>
-      <c r="D72" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" s="98">
-        <v>2</v>
-      </c>
-      <c r="G72" s="104" t="s">
+      <c r="D72" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="97">
+        <v>3</v>
+      </c>
+      <c r="G72" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="104"/>
+      <c r="H72" s="98"/>
     </row>
     <row r="73" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B73" s="94">
-        <v>2</v>
-      </c>
-      <c r="C73" s="94">
+        <v>3</v>
+      </c>
+      <c r="C73" s="95">
         <v>1</v>
       </c>
       <c r="D73" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="96" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="E73" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="F73" s="98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="104" t="s">
         <v>10</v>
@@ -4893,19 +4921,19 @@
         <v>38</v>
       </c>
       <c r="B74" s="94">
-        <v>2</v>
-      </c>
-      <c r="C74" s="94">
+        <v>3</v>
+      </c>
+      <c r="C74" s="95">
         <v>1</v>
       </c>
       <c r="D74" s="102" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E74" s="96" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F74" s="98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G74" s="104" t="s">
         <v>10</v>
@@ -4917,22 +4945,22 @@
         <v>38</v>
       </c>
       <c r="B75" s="94">
-        <v>2</v>
-      </c>
-      <c r="C75" s="94">
+        <v>3</v>
+      </c>
+      <c r="C75" s="95">
         <v>1</v>
       </c>
       <c r="D75" s="101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E75" s="96" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F75" s="98">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H75" s="104"/>
     </row>
@@ -4941,19 +4969,19 @@
         <v>38</v>
       </c>
       <c r="B76" s="94">
-        <v>2</v>
-      </c>
-      <c r="C76" s="94">
+        <v>3</v>
+      </c>
+      <c r="C76" s="95">
         <v>1</v>
       </c>
       <c r="D76" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="96" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="E76" s="94" t="s">
+        <v>81</v>
       </c>
       <c r="F76" s="98">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G76" s="104" t="s">
         <v>10</v>
@@ -4970,14 +4998,14 @@
       <c r="C77" s="94">
         <v>1</v>
       </c>
-      <c r="D77" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="94" t="s">
-        <v>87</v>
+      <c r="D77" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="96" t="s">
+        <v>49</v>
       </c>
       <c r="F77" s="98">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G77" s="104" t="s">
         <v>10</v>
@@ -4995,16 +5023,16 @@
         <v>1</v>
       </c>
       <c r="D78" s="102" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E78" s="94" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F78" s="98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G78" s="104" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H78" s="104"/>
     </row>
@@ -5018,17 +5046,17 @@
       <c r="C79" s="94">
         <v>1</v>
       </c>
-      <c r="D79" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="96" t="s">
-        <v>66</v>
+      <c r="D79" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="108" t="s">
+        <v>85</v>
       </c>
       <c r="F79" s="98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H79" s="104"/>
     </row>
@@ -5042,17 +5070,17 @@
       <c r="C80" s="94">
         <v>1</v>
       </c>
-      <c r="D80" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="96" t="s">
-        <v>53</v>
+      <c r="D80" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="139" t="s">
+        <v>51</v>
       </c>
       <c r="F80" s="98">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G80" s="104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="104"/>
     </row>
@@ -5066,14 +5094,14 @@
       <c r="C81" s="94">
         <v>1</v>
       </c>
-      <c r="D81" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="103" t="s">
-        <v>57</v>
+      <c r="D81" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="F81" s="98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" s="104" t="s">
         <v>10</v>
@@ -5090,17 +5118,17 @@
       <c r="C82" s="94">
         <v>1</v>
       </c>
-      <c r="D82" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="94" t="s">
-        <v>40</v>
+      <c r="D82" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="96" t="s">
+        <v>75</v>
       </c>
       <c r="F82" s="98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G82" s="104" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H82" s="104"/>
     </row>
@@ -5114,14 +5142,18 @@
       <c r="C83" s="94">
         <v>1</v>
       </c>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94" t="s">
-        <v>62</v>
+      <c r="D83" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="96" t="s">
+        <v>59</v>
       </c>
       <c r="F83" s="98">
-        <v>12</v>
-      </c>
-      <c r="G83" s="104"/>
+        <v>2</v>
+      </c>
+      <c r="G83" s="104" t="s">
+        <v>10</v>
+      </c>
       <c r="H83" s="104"/>
     </row>
     <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5135,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="102" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E84" s="94" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F84" s="98">
         <v>1</v>
@@ -5153,22 +5185,22 @@
         <v>38</v>
       </c>
       <c r="B85" s="94">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C85" s="94">
         <v>1</v>
       </c>
-      <c r="D85" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="94" t="s">
-        <v>40</v>
+      <c r="D85" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F85" s="98">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G85" s="104" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H85" s="104"/>
     </row>
@@ -5177,22 +5209,22 @@
         <v>38</v>
       </c>
       <c r="B86" s="94">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C86" s="94">
         <v>1</v>
       </c>
       <c r="D86" s="102" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E86" s="94" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F86" s="98">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G86" s="104" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H86" s="104"/>
     </row>
@@ -5206,7 +5238,7 @@
       <c r="C87" s="94">
         <v>1</v>
       </c>
-      <c r="D87" s="113" t="s">
+      <c r="D87" s="112" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="108" t="s">
@@ -5233,18 +5265,20 @@
         <v>1</v>
       </c>
       <c r="D88" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="E88" s="96" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="E88" s="94" t="s">
+        <v>81</v>
       </c>
       <c r="F88" s="98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G88" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="H88" s="104"/>
+        <v>10</v>
+      </c>
+      <c r="H88" s="94">
+        <v>66</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="93" t="s">
@@ -5256,21 +5290,19 @@
       <c r="C89" s="94">
         <v>1</v>
       </c>
-      <c r="D89" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="94" t="s">
-        <v>81</v>
+      <c r="D89" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F89" s="98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="94">
-        <v>66</v>
-      </c>
+      <c r="H89" s="104"/>
     </row>
     <row r="90" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="93" t="s">
@@ -5282,19 +5314,21 @@
       <c r="C90" s="94">
         <v>1</v>
       </c>
-      <c r="D90" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" s="103" t="s">
-        <v>57</v>
+      <c r="D90" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="108" t="s">
+        <v>91</v>
       </c>
       <c r="F90" s="98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G90" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H90" s="104"/>
+      <c r="H90" s="94">
+        <v>81</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="93" t="s">
@@ -5306,21 +5340,19 @@
       <c r="C91" s="94">
         <v>1</v>
       </c>
-      <c r="D91" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91" s="108" t="s">
-        <v>91</v>
+      <c r="D91" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="F91" s="98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G91" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="94">
-        <v>81</v>
-      </c>
+      <c r="H91" s="104"/>
     </row>
     <row r="92" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="93" t="s">
@@ -5332,14 +5364,14 @@
       <c r="C92" s="94">
         <v>1</v>
       </c>
-      <c r="D92" s="102" t="s">
-        <v>54</v>
+      <c r="D92" s="101" t="s">
+        <v>48</v>
       </c>
       <c r="E92" s="96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F92" s="98">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G92" s="104" t="s">
         <v>10</v>
@@ -5351,19 +5383,19 @@
         <v>38</v>
       </c>
       <c r="B93" s="94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C93" s="94">
         <v>1</v>
       </c>
-      <c r="D93" s="101" t="s">
-        <v>48</v>
+      <c r="D93" s="102" t="s">
+        <v>54</v>
       </c>
       <c r="E93" s="96" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F93" s="98">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G93" s="104" t="s">
         <v>10</v>
@@ -5375,20 +5407,23 @@
         <v>38</v>
       </c>
       <c r="B94" s="94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94" s="94">
         <v>1</v>
       </c>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94" t="s">
-        <v>62</v>
+      <c r="D94" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="108" t="s">
+        <v>85</v>
       </c>
       <c r="F94" s="98">
-        <f>100-SUM(F85:F93)</f>
-        <v>13</v>
-      </c>
-      <c r="G94" s="104"/>
+        <v>3</v>
+      </c>
+      <c r="G94" s="104" t="s">
+        <v>10</v>
+      </c>
       <c r="H94" s="104"/>
     </row>
     <row r="95" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5402,13 +5437,13 @@
         <v>1</v>
       </c>
       <c r="D95" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" s="96" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="E95" s="94" t="s">
+        <v>68</v>
       </c>
       <c r="F95" s="98">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="G95" s="104" t="s">
         <v>10</v>
@@ -5425,17 +5460,17 @@
       <c r="C96" s="94">
         <v>1</v>
       </c>
-      <c r="D96" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="94" t="s">
-        <v>40</v>
+      <c r="D96" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="139" t="s">
+        <v>51</v>
       </c>
       <c r="F96" s="98">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="G96" s="104" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H96" s="104"/>
     </row>
@@ -5444,19 +5479,19 @@
         <v>38</v>
       </c>
       <c r="B97" s="94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C97" s="94">
         <v>1</v>
       </c>
-      <c r="D97" s="113" t="s">
+      <c r="D97" s="112" t="s">
         <v>84</v>
       </c>
       <c r="E97" s="108" t="s">
         <v>85</v>
       </c>
       <c r="F97" s="98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97" s="104" t="s">
         <v>10</v>
@@ -5468,19 +5503,19 @@
         <v>38</v>
       </c>
       <c r="B98" s="94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C98" s="94">
         <v>1</v>
       </c>
       <c r="D98" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="94" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="E98" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="F98" s="98">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G98" s="104" t="s">
         <v>10</v>
@@ -5492,46 +5527,48 @@
         <v>38</v>
       </c>
       <c r="B99" s="94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C99" s="94">
         <v>1</v>
       </c>
-      <c r="D99" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99" s="111" t="s">
-        <v>51</v>
+      <c r="D99" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="144" t="s">
+        <v>91</v>
       </c>
       <c r="F99" s="98">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="G99" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="104"/>
+      <c r="H99" s="94">
+        <v>106</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B100" s="94">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C100" s="94">
         <v>1</v>
       </c>
       <c r="D100" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="E100" s="94" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="E100" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="F100" s="98">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G100" s="104" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H100" s="104"/>
     </row>
@@ -5540,19 +5577,23 @@
         <v>38</v>
       </c>
       <c r="B101" s="94">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C101" s="94">
         <v>1</v>
       </c>
-      <c r="D101" s="94"/>
-      <c r="E101" s="94" t="s">
-        <v>62</v>
+      <c r="D101" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="108" t="s">
+        <v>85</v>
       </c>
       <c r="F101" s="98">
-        <v>30</v>
-      </c>
-      <c r="G101" s="104"/>
+        <v>3</v>
+      </c>
+      <c r="G101" s="104" t="s">
+        <v>10</v>
+      </c>
       <c r="H101" s="104"/>
     </row>
     <row r="102" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5560,22 +5601,22 @@
         <v>38</v>
       </c>
       <c r="B102" s="94">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C102" s="94">
         <v>1</v>
       </c>
-      <c r="D102" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="94" t="s">
-        <v>40</v>
+      <c r="D102" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="96" t="s">
+        <v>49</v>
       </c>
       <c r="F102" s="98">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="G102" s="104" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H102" s="104"/>
     </row>
@@ -5584,19 +5625,19 @@
         <v>38</v>
       </c>
       <c r="B103" s="94">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C103" s="94">
         <v>1</v>
       </c>
-      <c r="D103" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="108" t="s">
-        <v>85</v>
+      <c r="D103" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E103" s="139" t="s">
+        <v>51</v>
       </c>
       <c r="F103" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G103" s="104" t="s">
         <v>10</v>
@@ -5608,19 +5649,19 @@
         <v>38</v>
       </c>
       <c r="B104" s="94">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C104" s="94">
         <v>1</v>
       </c>
       <c r="D104" s="102" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E104" s="96" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F104" s="98">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G104" s="104" t="s">
         <v>10</v>
@@ -5632,25 +5673,25 @@
         <v>38</v>
       </c>
       <c r="B105" s="94">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C105" s="94">
         <v>1</v>
       </c>
-      <c r="D105" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105" s="108" t="s">
-        <v>91</v>
+      <c r="D105" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F105" s="98">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G105" s="104" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="94">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5663,14 +5704,14 @@
       <c r="C106" s="94">
         <v>1</v>
       </c>
-      <c r="D106" s="102" t="s">
-        <v>54</v>
+      <c r="D106" s="101" t="s">
+        <v>46</v>
       </c>
       <c r="E106" s="96" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F106" s="98">
-        <v>85</v>
+        <v>0.5</v>
       </c>
       <c r="G106" s="104" t="s">
         <v>10</v>
@@ -5687,14 +5728,14 @@
       <c r="C107" s="94">
         <v>1</v>
       </c>
-      <c r="D107" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E107" s="108" t="s">
-        <v>85</v>
+      <c r="D107" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" s="94" t="s">
+        <v>87</v>
       </c>
       <c r="F107" s="98">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G107" s="104" t="s">
         <v>10</v>
@@ -5706,22 +5747,22 @@
         <v>38</v>
       </c>
       <c r="B108" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C108" s="94">
         <v>1</v>
       </c>
       <c r="D108" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" s="94" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="E108" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="F108" s="98">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G108" s="104" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H108" s="104"/>
     </row>
@@ -5730,43 +5771,45 @@
         <v>38</v>
       </c>
       <c r="B109" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C109" s="94">
         <v>1</v>
       </c>
       <c r="D109" s="101" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E109" s="96" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F109" s="98">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G109" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="104"/>
+        <v>10</v>
+      </c>
+      <c r="H109" s="94">
+        <v>38</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B110" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C110" s="94">
         <v>1</v>
       </c>
-      <c r="D110" s="101" t="s">
-        <v>48</v>
+      <c r="D110" s="102" t="s">
+        <v>60</v>
       </c>
       <c r="E110" s="96" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F110" s="98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G110" s="104" t="s">
         <v>10</v>
@@ -5778,7 +5821,7 @@
         <v>38</v>
       </c>
       <c r="B111" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C111" s="94">
         <v>1</v>
@@ -5802,19 +5845,19 @@
         <v>38</v>
       </c>
       <c r="B112" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C112" s="94">
         <v>1</v>
       </c>
       <c r="D112" s="102" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E112" s="96" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F112" s="98">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G112" s="104" t="s">
         <v>10</v>
@@ -5826,7 +5869,7 @@
         <v>38</v>
       </c>
       <c r="B113" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C113" s="94">
         <v>1</v>
@@ -5838,33 +5881,31 @@
         <v>57</v>
       </c>
       <c r="F113" s="98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G113" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="94">
-        <v>94</v>
-      </c>
+      <c r="H113" s="104"/>
     </row>
     <row r="114" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B114" s="94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C114" s="94">
         <v>1</v>
       </c>
-      <c r="D114" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="96" t="s">
-        <v>47</v>
+      <c r="D114" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" s="94" t="s">
+        <v>68</v>
       </c>
       <c r="F114" s="98">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G114" s="104" t="s">
         <v>10</v>
@@ -5875,260 +5916,264 @@
       <c r="A115" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="94">
-        <v>15</v>
-      </c>
-      <c r="C115" s="94">
+      <c r="B115" s="103">
+        <v>6</v>
+      </c>
+      <c r="C115" s="103">
         <v>1</v>
       </c>
-      <c r="D115" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="E115" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="F115" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="G115" s="104" t="s">
+      <c r="D115" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="F115" s="105">
+        <v>2</v>
+      </c>
+      <c r="G115" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="104"/>
+      <c r="H115" s="103"/>
     </row>
     <row r="116" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="94">
-        <v>15</v>
-      </c>
-      <c r="C116" s="94">
+      <c r="B116" s="103">
+        <v>6</v>
+      </c>
+      <c r="C116" s="103">
         <v>1</v>
       </c>
       <c r="D116" s="102" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E116" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F116" s="98">
-        <v>1</v>
-      </c>
-      <c r="G116" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="H116" s="104"/>
+        <v>55</v>
+      </c>
+      <c r="F116" s="105">
+        <v>22</v>
+      </c>
+      <c r="G116" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="103"/>
     </row>
     <row r="117" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B117" s="94">
+      <c r="B117" s="103">
+        <v>6</v>
+      </c>
+      <c r="C117" s="103">
+        <v>1</v>
+      </c>
+      <c r="D117" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="105">
+        <v>5</v>
+      </c>
+      <c r="G117" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="94">
-        <v>1</v>
-      </c>
-      <c r="D117" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E117" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F117" s="98">
-        <v>37</v>
-      </c>
-      <c r="G117" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="104"/>
+      <c r="H117" s="103"/>
     </row>
     <row r="118" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B118" s="94">
+      <c r="B118" s="103">
+        <v>6</v>
+      </c>
+      <c r="C118" s="103">
+        <v>1</v>
+      </c>
+      <c r="D118" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" s="105">
+        <v>1</v>
+      </c>
+      <c r="G118" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="94">
-        <v>1</v>
-      </c>
-      <c r="D118" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F118" s="98">
-        <v>42</v>
-      </c>
-      <c r="G118" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="94">
-        <v>38</v>
-      </c>
+      <c r="H118" s="103"/>
     </row>
     <row r="119" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B119" s="94">
+      <c r="B119" s="103">
+        <v>6</v>
+      </c>
+      <c r="C119" s="103">
+        <v>1</v>
+      </c>
+      <c r="D119" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E119" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="105">
+        <v>15</v>
+      </c>
+      <c r="G119" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="94">
-        <v>1</v>
-      </c>
-      <c r="D119" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="E119" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="98">
-        <v>16</v>
-      </c>
-      <c r="G119" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="104"/>
+      <c r="H119" s="103">
+        <v>81</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B120" s="94">
+      <c r="B120" s="103">
+        <v>6</v>
+      </c>
+      <c r="C120" s="103">
+        <v>1</v>
+      </c>
+      <c r="D120" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" s="105">
+        <v>4</v>
+      </c>
+      <c r="G120" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="94">
-        <v>1</v>
-      </c>
-      <c r="D120" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F120" s="98">
-        <v>5</v>
-      </c>
-      <c r="G120" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="H120" s="104"/>
+      <c r="H120" s="103"/>
     </row>
     <row r="121" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B121" s="94">
+      <c r="B121" s="103">
+        <v>8</v>
+      </c>
+      <c r="C121" s="103">
+        <v>1</v>
+      </c>
+      <c r="D121" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="105">
+        <v>25.5</v>
+      </c>
+      <c r="G121" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="94">
-        <v>1</v>
-      </c>
-      <c r="D121" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="E121" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="F121" s="98">
-        <v>4</v>
-      </c>
-      <c r="G121" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="104"/>
+      <c r="H121" s="106"/>
     </row>
     <row r="122" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B122" s="94">
+      <c r="B122" s="103">
+        <v>8</v>
+      </c>
+      <c r="C122" s="103">
+        <v>1</v>
+      </c>
+      <c r="D122" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="105">
+        <v>59.499999999999993</v>
+      </c>
+      <c r="G122" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="94">
-        <v>1</v>
-      </c>
-      <c r="D122" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E122" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="F122" s="98">
-        <v>3</v>
-      </c>
-      <c r="G122" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="104"/>
+      <c r="H122" s="106"/>
     </row>
     <row r="123" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B123" s="94">
+      <c r="B123" s="103">
+        <v>8</v>
+      </c>
+      <c r="C123" s="103">
+        <v>1</v>
+      </c>
+      <c r="D123" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="105">
+        <v>2</v>
+      </c>
+      <c r="G123" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="94">
-        <v>1</v>
-      </c>
-      <c r="D123" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="F123" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="G123" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="104"/>
+      <c r="H123" s="106"/>
     </row>
     <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B124" s="94">
+        <v>14</v>
+      </c>
+      <c r="C124" s="95">
+        <v>1</v>
+      </c>
+      <c r="D124" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="97">
+        <v>18.75</v>
+      </c>
+      <c r="G124" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="94">
-        <v>1</v>
-      </c>
-      <c r="D124" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E124" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="F124" s="98">
-        <v>1</v>
-      </c>
-      <c r="G124" s="104"/>
-      <c r="H124" s="104"/>
+      <c r="H124" s="98">
+        <v>91</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B125" s="94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C125" s="94">
         <v>1</v>
       </c>
-      <c r="D125" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E125" s="103" t="s">
-        <v>57</v>
+      <c r="D125" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="F125" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" s="104" t="s">
         <v>10</v>
@@ -6140,16 +6185,16 @@
         <v>38</v>
       </c>
       <c r="B126" s="94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C126" s="94">
         <v>1</v>
       </c>
       <c r="D126" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="E126" s="94" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="E126" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="F126" s="98">
         <v>1</v>
@@ -6163,573 +6208,564 @@
       <c r="A127" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="94">
+      <c r="B127" s="103">
+        <v>6</v>
+      </c>
+      <c r="C127" s="103">
+        <v>1</v>
+      </c>
+      <c r="D127" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="105">
+        <v>2</v>
+      </c>
+      <c r="G127" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="94">
-        <v>1</v>
-      </c>
-      <c r="D127" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F127" s="98">
-        <v>3</v>
-      </c>
-      <c r="G127" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="H127" s="104"/>
+      <c r="H127" s="103"/>
     </row>
     <row r="128" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B128" s="94">
-        <v>10</v>
-      </c>
-      <c r="C128" s="94">
+        <v>13</v>
+      </c>
+      <c r="C128" s="95">
         <v>1</v>
       </c>
-      <c r="D128" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E128" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F128" s="105">
+      <c r="D128" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" s="97">
         <v>1</v>
       </c>
-      <c r="G128" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="103"/>
+      <c r="G128" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H128" s="98"/>
     </row>
     <row r="129" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B129" s="94">
-        <v>10</v>
-      </c>
-      <c r="C129" s="94">
+        <v>14</v>
+      </c>
+      <c r="C129" s="95">
         <v>1</v>
       </c>
-      <c r="D129" s="103"/>
-      <c r="E129" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="F129" s="105">
-        <v>4</v>
-      </c>
-      <c r="G129" s="103"/>
-      <c r="H129" s="103"/>
+      <c r="D129" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" s="97">
+        <v>6</v>
+      </c>
+      <c r="G129" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H129" s="98">
+        <v>101</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B130" s="103">
-        <v>6</v>
-      </c>
-      <c r="C130" s="103">
+      <c r="B130" s="94">
+        <v>4</v>
+      </c>
+      <c r="C130" s="95">
         <v>1</v>
       </c>
-      <c r="D130" s="94" t="s">
-        <v>39</v>
+      <c r="D130" s="102" t="s">
+        <v>76</v>
       </c>
       <c r="E130" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="105">
-        <v>45</v>
-      </c>
-      <c r="G130" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H130" s="103"/>
+        <v>77</v>
+      </c>
+      <c r="F130" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="G130" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H130" s="98"/>
     </row>
     <row r="131" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B131" s="103">
-        <v>6</v>
-      </c>
-      <c r="C131" s="103">
+      <c r="B131" s="94">
+        <v>9</v>
+      </c>
+      <c r="C131" s="95">
         <v>1</v>
       </c>
-      <c r="D131" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E131" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="F131" s="105">
-        <v>2</v>
-      </c>
-      <c r="G131" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="103"/>
+      <c r="D131" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E131" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F131" s="97">
+        <v>5</v>
+      </c>
+      <c r="G131" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H131" s="98"/>
     </row>
     <row r="132" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="103">
+      <c r="B132" s="94">
+        <v>9</v>
+      </c>
+      <c r="C132" s="95">
+        <v>1</v>
+      </c>
+      <c r="D132" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="97">
         <v>6</v>
       </c>
-      <c r="C132" s="103">
-        <v>1</v>
-      </c>
-      <c r="D132" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E132" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F132" s="105">
-        <v>22</v>
-      </c>
-      <c r="G132" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="103"/>
+      <c r="G132" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H132" s="98"/>
     </row>
     <row r="133" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B133" s="103">
-        <v>6</v>
-      </c>
-      <c r="C133" s="103">
+      <c r="B133" s="94">
+        <v>2</v>
+      </c>
+      <c r="C133" s="94">
         <v>1</v>
       </c>
-      <c r="D133" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="E133" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="F133" s="105">
-        <v>2</v>
-      </c>
-      <c r="G133" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H133" s="103"/>
+      <c r="D133" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E133" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F133" s="98">
+        <v>1</v>
+      </c>
+      <c r="G133" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H133" s="104"/>
     </row>
     <row r="134" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B134" s="103">
-        <v>6</v>
-      </c>
-      <c r="C134" s="103">
+      <c r="B134" s="94">
+        <v>5</v>
+      </c>
+      <c r="C134" s="94">
         <v>1</v>
       </c>
-      <c r="D134" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="E134" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="F134" s="105">
-        <v>6</v>
-      </c>
-      <c r="G134" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="103"/>
+      <c r="D134" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E134" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F134" s="98">
+        <v>1</v>
+      </c>
+      <c r="G134" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H134" s="104"/>
     </row>
     <row r="135" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B135" s="103">
-        <v>6</v>
-      </c>
-      <c r="C135" s="103">
+      <c r="B135" s="94">
+        <v>15</v>
+      </c>
+      <c r="C135" s="94">
         <v>1</v>
       </c>
-      <c r="D135" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E135" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F135" s="105">
-        <v>3</v>
-      </c>
-      <c r="G135" s="103"/>
-      <c r="H135" s="103"/>
+      <c r="D135" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E135" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F135" s="98">
+        <v>4</v>
+      </c>
+      <c r="G135" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H135" s="104"/>
     </row>
     <row r="136" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="103">
-        <v>6</v>
-      </c>
-      <c r="C136" s="103">
+      <c r="B136" s="94">
+        <v>10</v>
+      </c>
+      <c r="C136" s="94">
         <v>1</v>
       </c>
       <c r="D136" s="102" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E136" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="105">
+        <v>77</v>
+      </c>
+      <c r="F136" s="98">
         <v>5</v>
       </c>
-      <c r="G136" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="103"/>
+      <c r="G136" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H136" s="104"/>
     </row>
     <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B137" s="103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" s="103">
         <v>1</v>
       </c>
       <c r="D137" s="102" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E137" s="94" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F137" s="105">
         <v>1</v>
       </c>
-      <c r="G137" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="103"/>
+      <c r="G137" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="H137" s="106"/>
     </row>
     <row r="138" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B138" s="103">
-        <v>6</v>
-      </c>
-      <c r="C138" s="103">
+      <c r="B138" s="94">
+        <v>13</v>
+      </c>
+      <c r="C138" s="95">
         <v>1</v>
       </c>
-      <c r="D138" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E138" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="F138" s="105">
-        <v>4</v>
-      </c>
-      <c r="G138" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H138" s="103"/>
+      <c r="D138" s="102"/>
+      <c r="E138" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F138" s="97">
+        <v>9</v>
+      </c>
+      <c r="G138" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H138" s="98"/>
     </row>
     <row r="139" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B139" s="103">
-        <v>6</v>
-      </c>
-      <c r="C139" s="103">
+      <c r="B139" s="94">
+        <v>14</v>
+      </c>
+      <c r="C139" s="95">
         <v>1</v>
       </c>
-      <c r="D139" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="E139" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="F139" s="105">
-        <v>15</v>
-      </c>
-      <c r="G139" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="103">
-        <v>81</v>
-      </c>
+      <c r="D139" s="94"/>
+      <c r="E139" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" s="97">
+        <v>5</v>
+      </c>
+      <c r="G139" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H139" s="98"/>
     </row>
     <row r="140" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B140" s="103">
-        <v>6</v>
-      </c>
-      <c r="C140" s="103">
+      <c r="B140" s="94">
+        <v>7</v>
+      </c>
+      <c r="C140" s="95">
         <v>1</v>
       </c>
-      <c r="D140" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="E140" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="F140" s="105">
-        <v>4</v>
-      </c>
-      <c r="G140" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="103"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F140" s="97">
+        <v>5</v>
+      </c>
+      <c r="G140" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H140" s="98"/>
     </row>
     <row r="141" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B141" s="103">
-        <v>6</v>
-      </c>
-      <c r="C141" s="103">
+      <c r="B141" s="94">
+        <v>9</v>
+      </c>
+      <c r="C141" s="95">
         <v>1</v>
       </c>
-      <c r="D141" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="E141" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="F141" s="105">
-        <v>3</v>
-      </c>
-      <c r="G141" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="103"/>
+      <c r="D141" s="94"/>
+      <c r="E141" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F141" s="97">
+        <v>22</v>
+      </c>
+      <c r="G141" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H141" s="98"/>
     </row>
     <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B142" s="103">
-        <v>6</v>
-      </c>
-      <c r="C142" s="103">
+      <c r="B142" s="94">
+        <v>3</v>
+      </c>
+      <c r="C142" s="95">
         <v>1</v>
       </c>
-      <c r="D142" s="102" t="s">
-        <v>63</v>
+      <c r="D142" s="94" t="s">
+        <v>102</v>
       </c>
       <c r="E142" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F142" s="105">
-        <v>2</v>
-      </c>
-      <c r="G142" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="H142" s="103"/>
+        <v>103</v>
+      </c>
+      <c r="F142" s="97">
+        <v>1</v>
+      </c>
+      <c r="G142" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H142" s="98"/>
     </row>
     <row r="143" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B143" s="103">
-        <v>6</v>
-      </c>
-      <c r="C143" s="103">
+      <c r="B143" s="94">
+        <v>3</v>
+      </c>
+      <c r="C143" s="95">
         <v>1</v>
       </c>
-      <c r="D143" s="103"/>
-      <c r="E143" s="103" t="s">
+      <c r="D143" s="94"/>
+      <c r="E143" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F143" s="105">
-        <v>15</v>
-      </c>
-      <c r="G143" s="106"/>
-      <c r="H143" s="106"/>
+      <c r="F143" s="98">
+        <v>17</v>
+      </c>
+      <c r="G143" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H143" s="104"/>
     </row>
     <row r="144" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B144" s="103">
-        <v>8</v>
-      </c>
-      <c r="C144" s="103">
+      <c r="B144" s="94">
+        <v>2</v>
+      </c>
+      <c r="C144" s="94">
         <v>1</v>
       </c>
-      <c r="D144" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E144" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F144" s="105">
-        <f>85*0.3</f>
-        <v>25.5</v>
-      </c>
-      <c r="G144" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="H144" s="106"/>
+      <c r="D144" s="94"/>
+      <c r="E144" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F144" s="98">
+        <v>12</v>
+      </c>
+      <c r="G144" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H144" s="104"/>
     </row>
     <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B145" s="103">
-        <v>8</v>
-      </c>
-      <c r="C145" s="103">
+      <c r="B145" s="94">
+        <v>12</v>
+      </c>
+      <c r="C145" s="94">
         <v>1</v>
       </c>
-      <c r="D145" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="E145" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="105">
-        <v>22</v>
-      </c>
-      <c r="G145" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="106"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="98">
+        <v>13</v>
+      </c>
+      <c r="G145" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H145" s="104"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B146" s="103">
-        <v>8</v>
-      </c>
-      <c r="C146" s="103">
+      <c r="B146" s="94">
+        <v>5</v>
+      </c>
+      <c r="C146" s="94">
         <v>1</v>
       </c>
-      <c r="D146" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E146" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F146" s="105">
-        <v>5</v>
-      </c>
-      <c r="G146" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" s="106"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" s="98">
+        <v>30</v>
+      </c>
+      <c r="G146" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H146" s="104"/>
     </row>
     <row r="147" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B147" s="103">
-        <v>8</v>
-      </c>
-      <c r="C147" s="103">
+      <c r="B147" s="94">
+        <v>10</v>
+      </c>
+      <c r="C147" s="94">
         <v>1</v>
       </c>
-      <c r="D147" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="E147" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="105">
-        <f>85*0.7</f>
-        <v>59.499999999999993</v>
-      </c>
-      <c r="G147" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="H147" s="106"/>
+      <c r="D147" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E147" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="F147" s="98">
+        <v>1</v>
+      </c>
+      <c r="G147" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H147" s="104"/>
     </row>
     <row r="148" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B148" s="103">
-        <v>8</v>
-      </c>
-      <c r="C148" s="103">
+      <c r="B148" s="94">
+        <v>10</v>
+      </c>
+      <c r="C148" s="94">
         <v>1</v>
       </c>
-      <c r="D148" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="E148" s="96" t="s">
-        <v>49</v>
+      <c r="D148" s="103"/>
+      <c r="E148" s="103" t="s">
+        <v>62</v>
       </c>
       <c r="F148" s="105">
-        <v>2</v>
-      </c>
-      <c r="G148" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="H148" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="G148" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="H148" s="103"/>
     </row>
     <row r="149" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B149" s="103">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" s="103">
         <v>1</v>
       </c>
-      <c r="D149" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E149" s="94" t="s">
-        <v>40</v>
+      <c r="D149" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="103" t="s">
+        <v>57</v>
       </c>
       <c r="F149" s="105">
-        <v>8</v>
-      </c>
-      <c r="G149" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="H149" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="G149" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="103"/>
     </row>
     <row r="150" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B150" s="103">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" s="103">
         <v>1</v>
       </c>
-      <c r="D150" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="E150" s="94" t="s">
-        <v>77</v>
+      <c r="D150" s="103"/>
+      <c r="E150" s="103" t="s">
+        <v>62</v>
       </c>
       <c r="F150" s="105">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G150" s="106" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H150" s="106"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IO150">
+    <sortCondition ref="G2:G150"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -6774,36 +6810,36 @@
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="131" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="128" t="s">
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="125" t="s">
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="122" t="s">
+      <c r="O1" s="125"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="123"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="119" t="s">
+      <c r="R1" s="122"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="120"/>
-      <c r="V1" s="121"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="120"/>
       <c r="W1" s="13"/>
       <c r="X1" s="14"/>
     </row>
@@ -20489,17 +20525,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
+      <c r="A1" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
@@ -21173,14 +21209,14 @@
       <c r="A1" s="82"/>
       <c r="B1" s="82"/>
       <c r="C1" s="83"/>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="137" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="138"/>
+      <c r="G1" s="137"/>
       <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
